--- a/output/input_google_sheets/xlsx/link_def.xlsx
+++ b/output/input_google_sheets/xlsx/link_def.xlsx
@@ -479,6 +479,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.5"/>
+    <col customWidth="1" min="2" max="2" width="25.63"/>
     <col customWidth="1" min="3" max="3" width="21.25"/>
     <col customWidth="1" min="4" max="4" width="22.38"/>
     <col customWidth="1" min="6" max="6" width="26.38"/>
